--- a/code/results/SP/B/energy_estimation/power_profile.xlsx
+++ b/code/results/SP/B/energy_estimation/power_profile.xlsx
@@ -388,10 +388,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.610304955878547</v>
+        <v>7.750869488421372</v>
       </c>
       <c r="C2" t="n">
-        <v>7.054129582069425</v>
+        <v>7.105474907137616</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -402,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.610304955878547</v>
+        <v>7.750869488421372</v>
       </c>
       <c r="C3" t="n">
-        <v>7.054129582069425</v>
+        <v>7.105474907137616</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -416,10 +416,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.610304955878547</v>
+        <v>7.750869488421372</v>
       </c>
       <c r="C4" t="n">
-        <v>7.054129582069425</v>
+        <v>7.105474907137616</v>
       </c>
       <c r="D4" t="n">
         <v>30</v>
@@ -430,10 +430,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.610304955878547</v>
+        <v>7.750869488421372</v>
       </c>
       <c r="C5" t="n">
-        <v>7.054129582069425</v>
+        <v>7.105474907137616</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.672651478692423</v>
+        <v>7.833382316957326</v>
       </c>
       <c r="C6" t="n">
-        <v>7.076213539586973</v>
+        <v>7.164908880178746</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
@@ -458,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.74587486423804</v>
+        <v>7.881815739478078</v>
       </c>
       <c r="C7" t="n">
-        <v>7.102141266360476</v>
+        <v>7.199814096367401</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
@@ -472,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.74587486423804</v>
+        <v>7.881815739478078</v>
       </c>
       <c r="C8" t="n">
-        <v>7.102141266360476</v>
+        <v>7.199814096367401</v>
       </c>
       <c r="D8" t="n">
         <v>70</v>
@@ -486,10 +486,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.74587486423804</v>
+        <v>7.881815739478078</v>
       </c>
       <c r="C9" t="n">
-        <v>7.102141266360476</v>
+        <v>7.199814096367401</v>
       </c>
       <c r="D9" t="n">
         <v>80</v>
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.791016754597159</v>
+        <v>7.961899280265904</v>
       </c>
       <c r="C10" t="n">
-        <v>7.13429111413155</v>
+        <v>7.256108305585482</v>
       </c>
       <c r="D10" t="n">
         <v>90</v>
@@ -514,10 +514,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.19723459789946</v>
+        <v>8.189832978285295</v>
       </c>
       <c r="C11" t="n">
-        <v>7.424032907112284</v>
+        <v>7.416597956821374</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -528,10 +528,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.19723459789946</v>
+        <v>8.189832978285295</v>
       </c>
       <c r="C12" t="n">
-        <v>7.424032907112284</v>
+        <v>7.416597956821374</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -542,10 +542,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.19723459789946</v>
+        <v>8.189832978285295</v>
       </c>
       <c r="C13" t="n">
-        <v>7.424032907112284</v>
+        <v>7.416597956821374</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -556,10 +556,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.19723459789946</v>
+        <v>8.189832978285295</v>
       </c>
       <c r="C14" t="n">
-        <v>7.424032907112284</v>
+        <v>7.416597956821374</v>
       </c>
       <c r="D14" t="n">
         <v>130</v>
@@ -570,10 +570,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.208744365558346</v>
+        <v>8.185839535623508</v>
       </c>
       <c r="C15" t="n">
-        <v>7.42863076322466</v>
+        <v>7.416637736644653</v>
       </c>
       <c r="D15" t="n">
         <v>140</v>
@@ -584,10 +584,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.235605416503731</v>
+        <v>8.180959248020592</v>
       </c>
       <c r="C16" t="n">
-        <v>7.439358813828097</v>
+        <v>7.416686377597177</v>
       </c>
       <c r="D16" t="n">
         <v>150</v>
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.235605416503731</v>
+        <v>8.180959248020592</v>
       </c>
       <c r="C17" t="n">
-        <v>7.439358813828097</v>
+        <v>7.416686377597177</v>
       </c>
       <c r="D17" t="n">
         <v>160</v>
@@ -612,10 +612,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.235605416503731</v>
+        <v>8.180959248020592</v>
       </c>
       <c r="C18" t="n">
-        <v>7.439358813828097</v>
+        <v>7.416686377597177</v>
       </c>
       <c r="D18" t="n">
         <v>170</v>
@@ -626,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.235605416503731</v>
+        <v>8.180959248020592</v>
       </c>
       <c r="C19" t="n">
-        <v>7.439358813828097</v>
+        <v>7.416686377597177</v>
       </c>
       <c r="D19" t="n">
         <v>180</v>
@@ -640,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.197349619854627</v>
+        <v>8.127870984376948</v>
       </c>
       <c r="C20" t="n">
-        <v>7.442967937376928</v>
+        <v>7.421315424574736</v>
       </c>
       <c r="D20" t="n">
         <v>190</v>
@@ -654,10 +654,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.163429804336609</v>
+        <v>8.096705600325834</v>
       </c>
       <c r="C21" t="n">
-        <v>7.446192296757516</v>
+        <v>7.424054243189595</v>
       </c>
       <c r="D21" t="n">
         <v>200</v>
@@ -668,10 +668,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.163429804336609</v>
+        <v>8.096705600325834</v>
       </c>
       <c r="C22" t="n">
-        <v>7.446192296757516</v>
+        <v>7.424054243189595</v>
       </c>
       <c r="D22" t="n">
         <v>210</v>
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.163429804336609</v>
+        <v>8.096705600325834</v>
       </c>
       <c r="C23" t="n">
-        <v>7.446192296757516</v>
+        <v>7.424054243189595</v>
       </c>
       <c r="D23" t="n">
         <v>220</v>
@@ -696,10 +696,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.163429804336609</v>
+        <v>8.096705600325834</v>
       </c>
       <c r="C24" t="n">
-        <v>7.446192296757516</v>
+        <v>7.424054243189595</v>
       </c>
       <c r="D24" t="n">
         <v>230</v>
@@ -710,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.162997442154818</v>
+        <v>8.097509189948177</v>
       </c>
       <c r="C25" t="n">
-        <v>7.446018335319099</v>
+        <v>7.42419626515824</v>
       </c>
       <c r="D25" t="n">
         <v>240</v>
@@ -724,10 +724,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.141810654290659</v>
+        <v>8.116811865990528</v>
       </c>
       <c r="C26" t="n">
-        <v>7.437493214475129</v>
+        <v>7.427604912194461</v>
       </c>
       <c r="D26" t="n">
         <v>250</v>
@@ -738,10 +738,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.141810654290659</v>
+        <v>8.116811865990528</v>
       </c>
       <c r="C27" t="n">
-        <v>7.437493214475129</v>
+        <v>7.427604912194461</v>
       </c>
       <c r="D27" t="n">
         <v>260</v>
@@ -752,10 +752,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.141810654290659</v>
+        <v>8.116811865990528</v>
       </c>
       <c r="C28" t="n">
-        <v>7.437493214475129</v>
+        <v>7.427604912194461</v>
       </c>
       <c r="D28" t="n">
         <v>270</v>
@@ -766,10 +766,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.141810654290659</v>
+        <v>8.116811865990528</v>
       </c>
       <c r="C29" t="n">
-        <v>7.437493214475129</v>
+        <v>7.427604912194461</v>
       </c>
       <c r="D29" t="n">
         <v>280</v>
@@ -780,10 +780,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.141810654290659</v>
+        <v>8.116811865990528</v>
       </c>
       <c r="C30" t="n">
-        <v>7.437493214475129</v>
+        <v>7.427604912194461</v>
       </c>
       <c r="D30" t="n">
         <v>290</v>
@@ -794,10 +794,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.926829777440659</v>
+        <v>8.017922240156885</v>
       </c>
       <c r="C31" t="n">
-        <v>7.269180235142745</v>
+        <v>7.306601506240838</v>
       </c>
       <c r="D31" t="n">
         <v>300</v>
@@ -808,10 +808,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.653072541312042</v>
+        <v>7.901601357295675</v>
       </c>
       <c r="C32" t="n">
-        <v>7.05571298986845</v>
+        <v>7.165145943964319</v>
       </c>
       <c r="D32" t="n">
         <v>310</v>
@@ -822,10 +822,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.653072541312042</v>
+        <v>7.901601357295675</v>
       </c>
       <c r="C33" t="n">
-        <v>7.05571298986845</v>
+        <v>7.165145943964319</v>
       </c>
       <c r="D33" t="n">
         <v>320</v>
@@ -836,10 +836,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.653072541312042</v>
+        <v>7.901601357295675</v>
       </c>
       <c r="C34" t="n">
-        <v>7.05571298986845</v>
+        <v>7.165145943964319</v>
       </c>
       <c r="D34" t="n">
         <v>330</v>
@@ -850,10 +850,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.922872981788579</v>
+        <v>8.101430880250106</v>
       </c>
       <c r="C35" t="n">
-        <v>7.226688518507853</v>
+        <v>7.306070127221034</v>
       </c>
       <c r="D35" t="n">
         <v>340</v>
@@ -864,10 +864,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.227273651826145</v>
+        <v>8.278639357186989</v>
       </c>
       <c r="C36" t="n">
-        <v>7.419729883625109</v>
+        <v>7.431213006408477</v>
       </c>
       <c r="D36" t="n">
         <v>350</v>
@@ -878,10 +878,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.227273651826145</v>
+        <v>8.278639357186989</v>
       </c>
       <c r="C37" t="n">
-        <v>7.419729883625109</v>
+        <v>7.431213006408477</v>
       </c>
       <c r="D37" t="n">
         <v>360</v>
@@ -892,10 +892,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.227273651826145</v>
+        <v>8.278639357186989</v>
       </c>
       <c r="C38" t="n">
-        <v>7.419729883625109</v>
+        <v>7.431213006408477</v>
       </c>
       <c r="D38" t="n">
         <v>370</v>
@@ -906,10 +906,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.212430195554262</v>
+        <v>8.231705076982735</v>
       </c>
       <c r="C39" t="n">
-        <v>7.410054031826672</v>
+        <v>7.41110403610033</v>
       </c>
       <c r="D39" t="n">
         <v>380</v>
@@ -920,10 +920,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.121245897930351</v>
+        <v>8.065351166093791</v>
       </c>
       <c r="C40" t="n">
-        <v>7.350594294469637</v>
+        <v>7.339773416371138</v>
       </c>
       <c r="D40" t="n">
         <v>390</v>
@@ -934,10 +934,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.121245897930351</v>
+        <v>8.065351166093791</v>
       </c>
       <c r="C41" t="n">
-        <v>7.350594294469637</v>
+        <v>7.339773416371138</v>
       </c>
       <c r="D41" t="n">
         <v>400</v>
@@ -948,10 +948,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.121245897930351</v>
+        <v>8.065351166093791</v>
       </c>
       <c r="C42" t="n">
-        <v>7.350594294469637</v>
+        <v>7.339773416371138</v>
       </c>
       <c r="D42" t="n">
         <v>410</v>
@@ -962,10 +962,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8.121245897930351</v>
+        <v>8.065351166093791</v>
       </c>
       <c r="C43" t="n">
-        <v>7.350594294469637</v>
+        <v>7.339773416371138</v>
       </c>
       <c r="D43" t="n">
         <v>420</v>
